--- a/cldr/main/timezone.xlsx
+++ b/cldr/main/timezone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1011">
   <si>
     <t xml:space="preserve">Санта-Изабел</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Неизвестный город</t>
   </si>
   <si>
-    <t xml:space="preserve">Неизвестныи город</t>
+    <t xml:space="preserve">Еилкаам ақалақь</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Etc/Unknown"&gt;&lt;exemplarCity&gt;</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Тролль</t>
   </si>
   <si>
-    <t xml:space="preserve">Трол</t>
+    <t xml:space="preserve">Тролл</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Antarctica/Troll"&gt;&lt;exemplarCity&gt;</t>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">Сёва</t>
   </si>
   <si>
+    <t xml:space="preserve">Сиова</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Antarctica/Syowa"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -154,7 +157,7 @@
     <t xml:space="preserve">Дюмон-д’Юрвиль</t>
   </si>
   <si>
-    <t xml:space="preserve">Диумон-д’Юрвил</t>
+    <t xml:space="preserve">Диумон-д’Иурвил</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Antarctica/DumontDUrville"&gt;&lt;exemplarCity&gt;</t>
@@ -247,7 +250,7 @@
     <t xml:space="preserve">Буэнос-Айрес</t>
   </si>
   <si>
-    <t xml:space="preserve">Буэнос-Аирес</t>
+    <t xml:space="preserve">Буенос-Аирес</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Buenos_Aires"&gt;&lt;exemplarCity&gt;</t>
@@ -274,6 +277,9 @@
     <t xml:space="preserve">Юкла</t>
   </si>
   <si>
+    <t xml:space="preserve">Аиукла</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Australia/Eucla"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -439,6 +445,9 @@
     <t xml:space="preserve">Бермудские о-ва</t>
   </si>
   <si>
+    <t xml:space="preserve">Бермудтәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Atlantic/Bermuda"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -469,7 +478,7 @@
     <t xml:space="preserve">Эйрунепе</t>
   </si>
   <si>
-    <t xml:space="preserve">Эирунепе</t>
+    <t xml:space="preserve">Еирунепе</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Eirunepe"&gt;&lt;exemplarCity&gt;</t>
@@ -661,7 +670,7 @@
     <t xml:space="preserve">Йеллоунайф</t>
   </si>
   <si>
-    <t xml:space="preserve">Йеллоунаиф</t>
+    <t xml:space="preserve">Иеллоунаиф</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Yellowknife"&gt;&lt;exemplarCity&gt;</t>
@@ -670,6 +679,9 @@
     <t xml:space="preserve">Эдмонтон</t>
   </si>
   <si>
+    <t xml:space="preserve">Едмонтон</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Edmonton"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -682,7 +694,7 @@
     <t xml:space="preserve">Кеймбридж-Бей</t>
   </si>
   <si>
-    <t xml:space="preserve">Кеимбридж-Беи</t>
+    <t xml:space="preserve">Кеимбриџ-Беи</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Cambridge_Bay"&gt;&lt;exemplarCity&gt;</t>
@@ -691,7 +703,7 @@
     <t xml:space="preserve">Реджайна</t>
   </si>
   <si>
-    <t xml:space="preserve">Реджаина</t>
+    <t xml:space="preserve">Реџаина</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Regina"&gt;&lt;exemplarCity&gt;</t>
@@ -775,6 +787,9 @@
     <t xml:space="preserve">Галифакс</t>
   </si>
   <si>
+    <t xml:space="preserve">Ҳалифакс</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Halifax"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -805,12 +820,18 @@
     <t xml:space="preserve">Сент-Джонс</t>
   </si>
   <si>
+    <t xml:space="preserve">Сент-Џонс</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/St_Johns"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Кокосовые о-ва</t>
   </si>
   <si>
+    <t xml:space="preserve">Кокостәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Indian/Cocos"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -853,6 +874,9 @@
     <t xml:space="preserve">Абиджан</t>
   </si>
   <si>
+    <t xml:space="preserve">Абиџан</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Africa/Abidjan"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -865,6 +889,9 @@
     <t xml:space="preserve">о-в Пасхи</t>
   </si>
   <si>
+    <t xml:space="preserve">ад-ха Пасхи</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Easter"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -940,6 +967,9 @@
     <t xml:space="preserve">о-в Рождества</t>
   </si>
   <si>
+    <t xml:space="preserve">ад-ха Қьырса</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Indian/Christmas"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -967,7 +997,7 @@
     <t xml:space="preserve">Бюзинген-на-Верхнем-Рейне</t>
   </si>
   <si>
-    <t xml:space="preserve">Биузинген-на-Верхнем-Реине</t>
+    <t xml:space="preserve">Биузинген-Хыхьтәи-Реине</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Europe/Busingen"&gt;&lt;exemplarCity&gt;</t>
@@ -982,12 +1012,18 @@
     <t xml:space="preserve">Джибути</t>
   </si>
   <si>
+    <t xml:space="preserve">Џибути</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Africa/Djibouti"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Копенгаген</t>
   </si>
   <si>
+    <t xml:space="preserve">Копенҳаген</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Europe/Copenhagen"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1012,6 +1048,9 @@
     <t xml:space="preserve">Галапагосские о-ва</t>
   </si>
   <si>
+    <t xml:space="preserve">Галапагостәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Galapagos"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1039,7 +1078,7 @@
     <t xml:space="preserve">Эль-Аюн</t>
   </si>
   <si>
-    <t xml:space="preserve">Эл-Аиун</t>
+    <t xml:space="preserve">Ел-Аиун</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Africa/El_Aaiun"&gt;&lt;exemplarCity&gt;</t>
@@ -1048,12 +1087,18 @@
     <t xml:space="preserve">Асмэра</t>
   </si>
   <si>
+    <t xml:space="preserve">Асмера</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Africa/Asmera"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Канарские о-ва</t>
   </si>
   <si>
+    <t xml:space="preserve">Канартәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Atlantic/Canary"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1087,12 +1132,18 @@
     <t xml:space="preserve">Фиджи</t>
   </si>
   <si>
+    <t xml:space="preserve">Фиџи</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Fiji"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Стэнли</t>
   </si>
   <si>
+    <t xml:space="preserve">Стенли</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Atlantic/Stanley"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1117,6 +1168,9 @@
     <t xml:space="preserve">Фарерские о-ва</t>
   </si>
   <si>
+    <t xml:space="preserve">Фарертәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Atlantic/Faeroe"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1231,7 +1285,7 @@
     <t xml:space="preserve">Южная Георгия</t>
   </si>
   <si>
-    <t xml:space="preserve">Южнаиа Георгиа</t>
+    <t xml:space="preserve">Аладатәи Георгиа</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Atlantic/South_Georgia"&gt;&lt;exemplarCity&gt;</t>
@@ -1267,6 +1321,9 @@
     <t xml:space="preserve">Гонконг</t>
   </si>
   <si>
+    <t xml:space="preserve">Ҳонконг</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Asia/Hong_Kong"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1300,6 +1357,9 @@
     <t xml:space="preserve">Джакарта</t>
   </si>
   <si>
+    <t xml:space="preserve">Џакарта</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Asia/Jakarta"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1318,7 +1378,7 @@
     <t xml:space="preserve">Джаяпура</t>
   </si>
   <si>
-    <t xml:space="preserve">Джаиапура</t>
+    <t xml:space="preserve">Џаиапура</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Asia/Jayapura"&gt;&lt;exemplarCity&gt;</t>
@@ -1333,6 +1393,9 @@
     <t xml:space="preserve">о-в Мэн</t>
   </si>
   <si>
+    <t xml:space="preserve">ад-ха Мен</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Europe/Isle_of_Man"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1381,13 +1444,16 @@
     <t xml:space="preserve">Джерси</t>
   </si>
   <si>
+    <t xml:space="preserve">Џерси</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Europe/Jersey"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Ямайка</t>
   </si>
   <si>
-    <t xml:space="preserve">Ямаика</t>
+    <t xml:space="preserve">Иамаика</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Jamaica"&gt;&lt;exemplarCity&gt;</t>
@@ -1432,6 +1498,9 @@
     <t xml:space="preserve">о-в Эндербери</t>
   </si>
   <si>
+    <t xml:space="preserve">ад-ха Ендербери</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Enderbury"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1450,6 +1519,9 @@
     <t xml:space="preserve">Коморы</t>
   </si>
   <si>
+    <t xml:space="preserve">Коморқәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Indian/Comoro"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1486,7 +1558,7 @@
     <t xml:space="preserve">Острова Кайман</t>
   </si>
   <si>
-    <t xml:space="preserve">Острова Каиман</t>
+    <t xml:space="preserve">Адгьылбжьахақәа Каиман</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Cayman"&gt;&lt;exemplarCity&gt;</t>
@@ -1543,7 +1615,7 @@
     <t xml:space="preserve">Вьентьян</t>
   </si>
   <si>
-    <t xml:space="preserve">Вьентиан</t>
+    <t xml:space="preserve">Вентиан</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Asia/Vientiane"&gt;&lt;exemplarCity&gt;</t>
@@ -1663,7 +1735,7 @@
     <t xml:space="preserve">Кваджалейн</t>
   </si>
   <si>
-    <t xml:space="preserve">Кваджалеин</t>
+    <t xml:space="preserve">Кваџалеин</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Kwajalein"&gt;&lt;exemplarCity&gt;</t>
@@ -1672,6 +1744,9 @@
     <t xml:space="preserve">Маджуро</t>
   </si>
   <si>
+    <t xml:space="preserve">Маџуро</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Majuro"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1693,6 +1768,9 @@
     <t xml:space="preserve">Янгон</t>
   </si>
   <si>
+    <t xml:space="preserve">Иангон</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Asia/Rangoon"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1771,7 +1849,7 @@
     <t xml:space="preserve">Мальдивы</t>
   </si>
   <si>
-    <t xml:space="preserve">Малдивы</t>
+    <t xml:space="preserve">Малдивқәа</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Indian/Maldives"&gt;&lt;exemplarCity&gt;</t>
@@ -1795,7 +1873,7 @@
     <t xml:space="preserve">Эрмосильо</t>
   </si>
   <si>
-    <t xml:space="preserve">Эрмосило</t>
+    <t xml:space="preserve">Ермосило</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/Hermosillo"&gt;&lt;exemplarCity&gt;</t>
@@ -1945,6 +2023,9 @@
     <t xml:space="preserve">Ниуэ</t>
   </si>
   <si>
+    <t xml:space="preserve">Ниуе</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Niue"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -1987,13 +2068,16 @@
     <t xml:space="preserve">Маркизские о-ва</t>
   </si>
   <si>
+    <t xml:space="preserve">Маркизтәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Marquesas"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">о-ва Гамбье</t>
   </si>
   <si>
-    <t xml:space="preserve">о-ва Гамбе</t>
+    <t xml:space="preserve">ад-хақәа Гамбе</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Gambier"&gt;&lt;exemplarCity&gt;</t>
@@ -2041,12 +2125,18 @@
     <t xml:space="preserve">Питкэрн</t>
   </si>
   <si>
+    <t xml:space="preserve">Питкерн</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Pitcairn"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Пуэрто-Рико</t>
   </si>
   <si>
+    <t xml:space="preserve">Пуерто-Рико</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Puerto_Rico"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2065,6 +2155,9 @@
     <t xml:space="preserve">Азорские о-ва</t>
   </si>
   <si>
+    <t xml:space="preserve">Азортәи ад-хақәа</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Atlantic/Azores"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2239,6 +2332,9 @@
     <t xml:space="preserve">Якутск</t>
   </si>
   <si>
+    <t xml:space="preserve">Иакутск</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Asia/Yakutsk"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2257,6 +2353,9 @@
     <t xml:space="preserve">о-в Сахалин</t>
   </si>
   <si>
+    <t xml:space="preserve">ад-ха Сахалин</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Asia/Sakhalin"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2308,7 +2407,7 @@
     <t xml:space="preserve">Эр-Рияд</t>
   </si>
   <si>
-    <t xml:space="preserve">Эр-Риад</t>
+    <t xml:space="preserve">Ер-Риад</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Asia/Riyadh"&gt;&lt;exemplarCity&gt;</t>
@@ -2323,6 +2422,9 @@
     <t xml:space="preserve">Маэ</t>
   </si>
   <si>
+    <t xml:space="preserve">Мае</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Indian/Mahe"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2335,7 +2437,7 @@
     <t xml:space="preserve">Стокгольм</t>
   </si>
   <si>
-    <t xml:space="preserve">Стокголм</t>
+    <t xml:space="preserve">Стокҳолм</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Europe/Stockholm"&gt;&lt;exemplarCity&gt;</t>
@@ -2350,7 +2452,7 @@
     <t xml:space="preserve">о-в Святой Елены</t>
   </si>
   <si>
-    <t xml:space="preserve">о-в Свиатои Елены</t>
+    <t xml:space="preserve">ад-ха Свиатои Елены</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Atlantic/St_Helena"&gt;&lt;exemplarCity&gt;</t>
@@ -2413,6 +2515,9 @@
     <t xml:space="preserve">Джуба</t>
   </si>
   <si>
+    <t xml:space="preserve">Џуба</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Africa/Juba"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2434,6 +2539,9 @@
     <t xml:space="preserve">Лоуэр-Принс-Куотер</t>
   </si>
   <si>
+    <t xml:space="preserve">Лоуер-Принс-Куотер</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Lower_Princes"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2458,6 +2566,9 @@
     <t xml:space="preserve">Нджамена</t>
   </si>
   <si>
+    <t xml:space="preserve">Нџамена</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Africa/Ndjamena"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2539,7 +2650,7 @@
     <t xml:space="preserve">Тайбэй</t>
   </si>
   <si>
-    <t xml:space="preserve">Таибэи</t>
+    <t xml:space="preserve">Таибеи</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Asia/Taipei"&gt;&lt;exemplarCity&gt;</t>
@@ -2548,12 +2659,18 @@
     <t xml:space="preserve">Дар-эс-Салам</t>
   </si>
   <si>
+    <t xml:space="preserve">Дар-ес-Салам</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Africa/Dar_es_Salaam"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Ужгород</t>
   </si>
   <si>
+    <t xml:space="preserve">Ужҳород</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Europe/Uzhgorod"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2590,7 +2707,7 @@
     <t xml:space="preserve">о-ва Мидуэй</t>
   </si>
   <si>
-    <t xml:space="preserve">о-ва Мидуэи</t>
+    <t xml:space="preserve">ад-хақәа Мидуеи</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Midway"&gt;&lt;exemplarCity&gt;</t>
@@ -2599,7 +2716,7 @@
     <t xml:space="preserve">Уэйк</t>
   </si>
   <si>
-    <t xml:space="preserve">Уэик</t>
+    <t xml:space="preserve">Уеик</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Wake"&gt;&lt;exemplarCity&gt;</t>
@@ -2620,24 +2737,36 @@
     <t xml:space="preserve">Гонолулу</t>
   </si>
   <si>
+    <t xml:space="preserve">Ҳонолулу</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Honolulu"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Джонстон</t>
   </si>
   <si>
+    <t xml:space="preserve">Џонстон</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Johnston"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Анкоридж</t>
   </si>
   <si>
+    <t xml:space="preserve">Анкориџ</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Anchorage"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Якутат</t>
   </si>
   <si>
+    <t xml:space="preserve">Иакутат</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Yakutat"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2650,6 +2779,9 @@
     <t xml:space="preserve">Джуно</t>
   </si>
   <si>
+    <t xml:space="preserve">Џуно</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Juneau"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2662,6 +2794,9 @@
     <t xml:space="preserve">Лос-Анджелес</t>
   </si>
   <si>
+    <t xml:space="preserve">Лос-Анџелес</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="America/Los_Angeles"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2689,7 +2824,7 @@
     <t xml:space="preserve">Бойла, Северная Дакота</t>
   </si>
   <si>
-    <t xml:space="preserve">Боила, Севернаиа Дакота</t>
+    <t xml:space="preserve">Боила, Аҩадатәи Дакота</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/North_Dakota/Beulah"&gt;&lt;exemplarCity&gt;</t>
@@ -2698,7 +2833,7 @@
     <t xml:space="preserve">Нью-Сейлем, Северная Дакота</t>
   </si>
   <si>
-    <t xml:space="preserve">Ниу-Сеилем, Севернаиа Дакота</t>
+    <t xml:space="preserve">Ниу-Сеилем, Аҩадатәи Дакота</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/North_Dakota/New_Salem"&gt;&lt;exemplarCity&gt;</t>
@@ -2707,7 +2842,7 @@
     <t xml:space="preserve">Центр, Северная Дакота</t>
   </si>
   <si>
-    <t xml:space="preserve">Центр, Севернаиа Дакота</t>
+    <t xml:space="preserve">Агәҭа, Аҩадатәи Дакота</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/North_Dakota/Center"&gt;&lt;exemplarCity&gt;</t>
@@ -2800,7 +2935,7 @@
     <t xml:space="preserve">Нью-Йорк</t>
   </si>
   <si>
-    <t xml:space="preserve">Ниу-Йорк</t>
+    <t xml:space="preserve">Ниу-Иорк</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="America/New_York"&gt;&lt;exemplarCity&gt;</t>
@@ -2863,6 +2998,9 @@
     <t xml:space="preserve">Эфате</t>
   </si>
   <si>
+    <t xml:space="preserve">Ефате</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Pacific/Efate"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2896,6 +3034,9 @@
     <t xml:space="preserve">Йоханнесбург</t>
   </si>
   <si>
+    <t xml:space="preserve">Иоханнесбург</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;zone type="Africa/Johannesburg"&gt;&lt;exemplarCity&gt;</t>
   </si>
   <si>
@@ -2906,6 +3047,9 @@
   </si>
   <si>
     <t xml:space="preserve">Хараре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ҳараре</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;zone type="Africa/Harare"&gt;&lt;exemplarCity&gt;</t>
@@ -2982,8 +3126,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3015,8 +3163,8 @@
   </sheetPr>
   <dimension ref="A1:D426"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A398" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B409" activeCellId="0" sqref="B409"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A362" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B373" activeCellId="0" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3212,10 +3360,10 @@
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>2</v>
@@ -3223,13 +3371,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>2</v>
@@ -3237,13 +3385,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>2</v>
@@ -3251,13 +3399,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>2</v>
@@ -3265,13 +3413,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>2</v>
@@ -3279,13 +3427,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>2</v>
@@ -3293,13 +3441,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>2</v>
@@ -3307,13 +3455,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>2</v>
@@ -3321,13 +3469,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>2</v>
@@ -3335,13 +3483,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>2</v>
@@ -3349,13 +3497,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>2</v>
@@ -3363,13 +3511,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>2</v>
@@ -3377,13 +3525,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>2</v>
@@ -3391,13 +3539,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>2</v>
@@ -3405,13 +3553,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>2</v>
@@ -3419,13 +3567,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>2</v>
@@ -3433,13 +3581,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>2</v>
@@ -3447,13 +3595,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>2</v>
@@ -3461,13 +3609,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>2</v>
@@ -3475,13 +3623,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>2</v>
@@ -3489,13 +3637,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>2</v>
@@ -3503,13 +3651,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>2</v>
@@ -3517,13 +3665,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>2</v>
@@ -3531,13 +3679,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>2</v>
@@ -3545,13 +3693,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>2</v>
@@ -3559,13 +3707,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>2</v>
@@ -3573,13 +3721,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>2</v>
@@ -3587,13 +3735,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>2</v>
@@ -3601,13 +3749,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>2</v>
@@ -3615,13 +3763,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>2</v>
@@ -3629,13 +3777,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>2</v>
@@ -3643,13 +3791,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>2</v>
@@ -3657,13 +3805,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>2</v>
@@ -3671,13 +3819,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>2</v>
@@ -3685,13 +3833,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>2</v>
@@ -3699,13 +3847,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>2</v>
@@ -3713,13 +3861,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>2</v>
@@ -3727,13 +3875,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>2</v>
@@ -3741,13 +3889,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>2</v>
@@ -3755,13 +3903,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>2</v>
@@ -3769,13 +3917,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>2</v>
@@ -3783,13 +3931,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>2</v>
@@ -3797,13 +3945,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>2</v>
@@ -3811,13 +3959,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>2</v>
@@ -3825,13 +3973,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>2</v>
@@ -3839,13 +3987,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>2</v>
@@ -3853,13 +4001,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>2</v>
@@ -3867,13 +4015,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>2</v>
@@ -3881,13 +4029,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>2</v>
@@ -3895,13 +4043,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>2</v>
@@ -3909,13 +4057,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>2</v>
@@ -3923,13 +4071,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>2</v>
@@ -3937,13 +4085,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>2</v>
@@ -3951,13 +4099,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>2</v>
@@ -3965,13 +4113,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>2</v>
@@ -3979,13 +4127,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>2</v>
@@ -3993,13 +4141,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>2</v>
@@ -4007,13 +4155,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>2</v>
@@ -4021,13 +4169,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>2</v>
@@ -4035,13 +4183,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>2</v>
@@ -4049,13 +4197,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>2</v>
@@ -4063,13 +4211,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>2</v>
@@ -4077,13 +4225,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>2</v>
@@ -4091,13 +4239,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>2</v>
@@ -4105,13 +4253,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>2</v>
@@ -4119,13 +4267,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>2</v>
@@ -4133,13 +4281,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>2</v>
@@ -4147,13 +4295,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>2</v>
@@ -4161,13 +4309,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>2</v>
@@ -4175,13 +4323,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>2</v>
@@ -4189,13 +4337,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>2</v>
@@ -4203,13 +4351,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>2</v>
@@ -4217,13 +4365,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>2</v>
@@ -4231,13 +4379,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>2</v>
@@ -4245,13 +4393,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>2</v>
@@ -4259,13 +4407,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>2</v>
@@ -4273,13 +4421,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>2</v>
@@ -4287,13 +4435,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>2</v>
@@ -4301,13 +4449,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>2</v>
@@ -4315,13 +4463,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>2</v>
@@ -4329,13 +4477,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>2</v>
@@ -4343,13 +4491,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>2</v>
@@ -4357,13 +4505,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>2</v>
@@ -4371,13 +4519,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>2</v>
@@ -4385,13 +4533,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>2</v>
@@ -4399,13 +4547,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>2</v>
@@ -4413,13 +4561,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>2</v>
@@ -4427,13 +4575,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>2</v>
@@ -4441,13 +4589,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>2</v>
@@ -4455,13 +4603,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>2</v>
@@ -4469,13 +4617,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>2</v>
@@ -4483,13 +4631,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>2</v>
@@ -4497,13 +4645,13 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>2</v>
@@ -4511,13 +4659,13 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>2</v>
@@ -4525,13 +4673,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>2</v>
@@ -4539,13 +4687,13 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>2</v>
@@ -4553,13 +4701,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>2</v>
@@ -4567,13 +4715,13 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>2</v>
@@ -4581,13 +4729,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>2</v>
@@ -4595,13 +4743,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>2</v>
@@ -4609,13 +4757,13 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>2</v>
@@ -4623,13 +4771,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>2</v>
@@ -4637,13 +4785,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>2</v>
@@ -4651,13 +4799,13 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>2</v>
@@ -4665,13 +4813,13 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>2</v>
@@ -4679,13 +4827,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>2</v>
@@ -4693,13 +4841,13 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>2</v>
@@ -4707,13 +4855,13 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>2</v>
@@ -4721,13 +4869,13 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>2</v>
@@ -4735,13 +4883,13 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>2</v>
@@ -4749,13 +4897,13 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>2</v>
@@ -4763,13 +4911,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>2</v>
@@ -4777,13 +4925,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>2</v>
@@ -4791,13 +4939,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>2</v>
@@ -4805,13 +4953,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>2</v>
@@ -4819,13 +4967,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>2</v>
@@ -4833,13 +4981,13 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>2</v>
@@ -4847,13 +4995,13 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>2</v>
@@ -4861,13 +5009,13 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>2</v>
@@ -4875,13 +5023,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>2</v>
@@ -4889,13 +5037,13 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>2</v>
@@ -4903,13 +5051,13 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>2</v>
@@ -4917,13 +5065,13 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>2</v>
@@ -4931,13 +5079,13 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>2</v>
@@ -4945,13 +5093,13 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>2</v>
@@ -4959,13 +5107,13 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>2</v>
@@ -4973,13 +5121,13 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>2</v>
@@ -4987,13 +5135,13 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>2</v>
@@ -5001,13 +5149,13 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>2</v>
@@ -5015,13 +5163,13 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>2</v>
@@ -5029,13 +5177,13 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>2</v>
@@ -5043,13 +5191,13 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>2</v>
@@ -5057,13 +5205,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>2</v>
@@ -5071,13 +5219,13 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>2</v>
@@ -5085,13 +5233,13 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>2</v>
@@ -5099,13 +5247,13 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>2</v>
@@ -5113,13 +5261,13 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>2</v>
@@ -5127,13 +5275,13 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>2</v>
@@ -5141,13 +5289,13 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>2</v>
@@ -5155,13 +5303,13 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>2</v>
@@ -5169,13 +5317,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>2</v>
@@ -5183,13 +5331,13 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>2</v>
@@ -5197,13 +5345,13 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>2</v>
@@ -5211,13 +5359,13 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>2</v>
@@ -5225,13 +5373,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>2</v>
@@ -5239,13 +5387,13 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>2</v>
@@ -5253,13 +5401,13 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>2</v>
@@ -5267,13 +5415,13 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>2</v>
@@ -5281,13 +5429,13 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>2</v>
@@ -5295,13 +5443,13 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>2</v>
@@ -5309,13 +5457,13 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>2</v>
@@ -5323,13 +5471,13 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>2</v>
@@ -5337,13 +5485,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>2</v>
@@ -5351,13 +5499,13 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>2</v>
@@ -5365,13 +5513,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>2</v>
@@ -5379,13 +5527,13 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>2</v>
@@ -5393,13 +5541,13 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>2</v>
@@ -5407,13 +5555,13 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>2</v>
@@ -5421,13 +5569,13 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>2</v>
@@ -5435,13 +5583,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>2</v>
@@ -5449,13 +5597,13 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>2</v>
@@ -5463,13 +5611,13 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>2</v>
@@ -5477,13 +5625,13 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>2</v>
@@ -5491,13 +5639,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>2</v>
@@ -5505,13 +5653,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>2</v>
@@ -5519,13 +5667,13 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>2</v>
@@ -5533,13 +5681,13 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>2</v>
@@ -5547,13 +5695,13 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>2</v>
@@ -5561,13 +5709,13 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>2</v>
@@ -5575,13 +5723,13 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>2</v>
@@ -5589,13 +5737,13 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>2</v>
@@ -5603,13 +5751,13 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>2</v>
@@ -5617,13 +5765,13 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>2</v>
@@ -5631,13 +5779,13 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>2</v>
@@ -5645,13 +5793,13 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>2</v>
@@ -5659,13 +5807,13 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>2</v>
@@ -5673,13 +5821,13 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>2</v>
@@ -5687,13 +5835,13 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>2</v>
@@ -5701,13 +5849,13 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>2</v>
@@ -5715,13 +5863,13 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>2</v>
@@ -5729,13 +5877,13 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>2</v>
@@ -5743,13 +5891,13 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>2</v>
@@ -5757,13 +5905,13 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>2</v>
@@ -5771,13 +5919,13 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>2</v>
@@ -5785,13 +5933,13 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>2</v>
@@ -5799,13 +5947,13 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>2</v>
@@ -5813,13 +5961,13 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>2</v>
@@ -5827,13 +5975,13 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>2</v>
@@ -5841,13 +5989,13 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>2</v>
@@ -5855,13 +6003,13 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>2</v>
@@ -5869,13 +6017,13 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>2</v>
@@ -5883,13 +6031,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>2</v>
@@ -5897,13 +6045,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>2</v>
@@ -5911,13 +6059,13 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>2</v>
@@ -5925,13 +6073,13 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>2</v>
@@ -5939,13 +6087,13 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>2</v>
@@ -5953,13 +6101,13 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>2</v>
@@ -5967,13 +6115,13 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>2</v>
@@ -5981,13 +6129,13 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>2</v>
@@ -5995,13 +6143,13 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>2</v>
@@ -6009,13 +6157,13 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>2</v>
@@ -6023,13 +6171,13 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>488</v>
+        <v>511</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>2</v>
@@ -6037,13 +6185,13 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>2</v>
@@ -6051,13 +6199,13 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>493</v>
+        <v>516</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>2</v>
@@ -6065,13 +6213,13 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>2</v>
@@ -6079,13 +6227,13 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>2</v>
@@ -6093,13 +6241,13 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>2</v>
@@ -6107,13 +6255,13 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>2</v>
@@ -6121,13 +6269,13 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>2</v>
@@ -6135,13 +6283,13 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>2</v>
@@ -6149,13 +6297,13 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>2</v>
@@ -6163,13 +6311,13 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>2</v>
@@ -6177,13 +6325,13 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>2</v>
@@ -6191,13 +6339,13 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>2</v>
@@ -6205,13 +6353,13 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>2</v>
@@ -6219,13 +6367,13 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>2</v>
@@ -6233,13 +6381,13 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>2</v>
@@ -6247,13 +6395,13 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>2</v>
@@ -6261,13 +6409,13 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>2</v>
@@ -6275,13 +6423,13 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>2</v>
@@ -6289,13 +6437,13 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>2</v>
@@ -6303,13 +6451,13 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>2</v>
@@ -6317,13 +6465,13 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>2</v>
@@ -6331,13 +6479,13 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>2</v>
@@ -6345,13 +6493,13 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>2</v>
@@ -6359,13 +6507,13 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>2</v>
@@ -6373,13 +6521,13 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>2</v>
@@ -6387,13 +6535,13 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>2</v>
@@ -6401,13 +6549,13 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>2</v>
@@ -6415,13 +6563,13 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>2</v>
@@ -6429,13 +6577,13 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>2</v>
@@ -6443,13 +6591,13 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>2</v>
@@ -6457,13 +6605,13 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>2</v>
@@ -6471,13 +6619,13 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>2</v>
@@ -6485,13 +6633,13 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>2</v>
@@ -6499,13 +6647,13 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>2</v>
@@ -6513,13 +6661,13 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>2</v>
@@ -6527,13 +6675,13 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>2</v>
@@ -6541,13 +6689,13 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>2</v>
@@ -6555,13 +6703,13 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>2</v>
@@ -6569,13 +6717,13 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>2</v>
@@ -6583,13 +6731,13 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>2</v>
@@ -6597,13 +6745,13 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>2</v>
@@ -6611,13 +6759,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>2</v>
@@ -6625,13 +6773,13 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>2</v>
@@ -6639,13 +6787,13 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>2</v>
@@ -6653,13 +6801,13 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>2</v>
@@ -6667,13 +6815,13 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>2</v>
@@ -6681,13 +6829,13 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>2</v>
@@ -6695,13 +6843,13 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>2</v>
@@ -6709,13 +6857,13 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>2</v>
@@ -6723,13 +6871,13 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>2</v>
@@ -6737,13 +6885,13 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>2</v>
@@ -6751,13 +6899,13 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>2</v>
@@ -6765,13 +6913,13 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>2</v>
@@ -6779,13 +6927,13 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>2</v>
@@ -6793,13 +6941,13 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>2</v>
@@ -6807,13 +6955,13 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>2</v>
@@ -6821,13 +6969,13 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>2</v>
@@ -6835,13 +6983,13 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>2</v>
@@ -6849,13 +6997,13 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>2</v>
@@ -6863,13 +7011,13 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>2</v>
@@ -6877,13 +7025,13 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>2</v>
@@ -6891,13 +7039,13 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>2</v>
@@ -6905,13 +7053,13 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>2</v>
@@ -6919,13 +7067,13 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>2</v>
@@ -6933,13 +7081,13 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>2</v>
@@ -6947,13 +7095,13 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>2</v>
@@ -6961,13 +7109,13 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>2</v>
@@ -6975,13 +7123,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>2</v>
@@ -6989,13 +7137,13 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>2</v>
@@ -7003,13 +7151,13 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>2</v>
@@ -7017,13 +7165,13 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>2</v>
@@ -7031,13 +7179,13 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>2</v>
@@ -7045,13 +7193,13 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>2</v>
@@ -7059,13 +7207,13 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>2</v>
@@ -7073,13 +7221,13 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>2</v>
@@ -7087,13 +7235,13 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>2</v>
@@ -7101,13 +7249,13 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>2</v>
@@ -7115,13 +7263,13 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>2</v>
@@ -7129,13 +7277,13 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>2</v>
@@ -7143,13 +7291,13 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>2</v>
@@ -7157,13 +7305,13 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>2</v>
@@ -7171,13 +7319,13 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>2</v>
@@ -7185,13 +7333,13 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>2</v>
@@ -7199,13 +7347,13 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>2</v>
@@ -7213,13 +7361,13 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>681</v>
+        <v>712</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>2</v>
@@ -7227,13 +7375,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>682</v>
+        <v>713</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>2</v>
@@ -7241,13 +7389,13 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>2</v>
@@ -7255,13 +7403,13 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>2</v>
@@ -7269,13 +7417,13 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>2</v>
@@ -7283,13 +7431,13 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>2</v>
@@ -7297,13 +7445,13 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>2</v>
@@ -7311,13 +7459,13 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>2</v>
@@ -7325,13 +7473,13 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>2</v>
@@ -7339,13 +7487,13 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>2</v>
@@ -7353,13 +7501,13 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>2</v>
@@ -7367,13 +7515,13 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>2</v>
@@ -7381,13 +7529,13 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>2</v>
@@ -7395,13 +7543,13 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>2</v>
@@ -7409,13 +7557,13 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>2</v>
@@ -7423,13 +7571,13 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>2</v>
@@ -7437,13 +7585,13 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>2</v>
@@ -7451,13 +7599,13 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>2</v>
@@ -7465,13 +7613,13 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>2</v>
@@ -7479,13 +7627,13 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>2</v>
@@ -7493,13 +7641,13 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>2</v>
@@ -7507,13 +7655,13 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>2</v>
@@ -7521,13 +7669,13 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>2</v>
@@ -7535,13 +7683,13 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>2</v>
@@ -7549,13 +7697,13 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>2</v>
@@ -7563,13 +7711,13 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>2</v>
@@ -7577,13 +7725,13 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>2</v>
@@ -7591,13 +7739,13 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>2</v>
@@ -7605,13 +7753,13 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>2</v>
@@ -7619,13 +7767,13 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="D329" s="0" t="s">
         <v>2</v>
@@ -7633,13 +7781,13 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>2</v>
@@ -7647,13 +7795,13 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>750</v>
+        <v>783</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>2</v>
@@ -7661,13 +7809,13 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>752</v>
+        <v>785</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>2</v>
@@ -7675,13 +7823,13 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>753</v>
+        <v>786</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>755</v>
+        <v>788</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>2</v>
@@ -7689,13 +7837,13 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>756</v>
+        <v>789</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>757</v>
+        <v>790</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>2</v>
@@ -7703,13 +7851,13 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>2</v>
@@ -7717,13 +7865,13 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>2</v>
@@ -7731,13 +7879,13 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="D337" s="0" t="s">
         <v>2</v>
@@ -7745,13 +7893,13 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="D338" s="0" t="s">
         <v>2</v>
@@ -7759,13 +7907,13 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>2</v>
@@ -7773,13 +7921,13 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>2</v>
@@ -7787,13 +7935,13 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>2</v>
@@ -7801,13 +7949,13 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>775</v>
+        <v>809</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>776</v>
+        <v>810</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>777</v>
+        <v>811</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>2</v>
@@ -7815,13 +7963,13 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>778</v>
+        <v>812</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>780</v>
+        <v>814</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>2</v>
@@ -7829,13 +7977,13 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>2</v>
@@ -7843,13 +7991,13 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>2</v>
@@ -7857,13 +8005,13 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>787</v>
+        <v>821</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>2</v>
@@ -7871,13 +8019,13 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>2</v>
@@ -7885,13 +8033,13 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>791</v>
+        <v>825</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>2</v>
@@ -7899,13 +8047,13 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>792</v>
+        <v>826</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>792</v>
+        <v>826</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>2</v>
@@ -7913,13 +8061,13 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>2</v>
@@ -7927,13 +8075,13 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>2</v>
@@ -7941,13 +8089,13 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>798</v>
+        <v>833</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>798</v>
+        <v>833</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>799</v>
+        <v>834</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>2</v>
@@ -7955,13 +8103,13 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>801</v>
+        <v>836</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>802</v>
+        <v>837</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>2</v>
@@ -7969,13 +8117,13 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>803</v>
+        <v>838</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>2</v>
@@ -7983,13 +8131,13 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>2</v>
@@ -7997,13 +8145,13 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>2</v>
@@ -8011,13 +8159,13 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>2</v>
@@ -8025,13 +8173,13 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>2</v>
@@ -8039,13 +8187,13 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>814</v>
+        <v>851</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>2</v>
@@ -8053,13 +8201,13 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>815</v>
+        <v>852</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>815</v>
+        <v>852</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>816</v>
+        <v>853</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>2</v>
@@ -8067,13 +8215,13 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>817</v>
+        <v>854</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>817</v>
+        <v>854</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>2</v>
@@ -8081,13 +8229,13 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>2</v>
@@ -8095,13 +8243,13 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="D363" s="0" t="s">
         <v>2</v>
@@ -8109,13 +8257,13 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>2</v>
@@ -8123,13 +8271,13 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="D365" s="0" t="s">
         <v>2</v>
@@ -8137,13 +8285,13 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>2</v>
@@ -8151,13 +8299,13 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>830</v>
+        <v>867</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>2</v>
@@ -8165,13 +8313,13 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="D368" s="0" t="s">
         <v>2</v>
@@ -8179,13 +8327,13 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>834</v>
+        <v>871</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="D369" s="0" t="s">
         <v>2</v>
@@ -8193,13 +8341,13 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>2</v>
@@ -8207,13 +8355,13 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>2</v>
@@ -8221,13 +8369,13 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>841</v>
+        <v>879</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>842</v>
+        <v>880</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>2</v>
@@ -8235,13 +8383,13 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>843</v>
+        <v>881</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>843</v>
+        <v>882</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>844</v>
+        <v>883</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>2</v>
@@ -8249,13 +8397,13 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>846</v>
+        <v>885</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>2</v>
@@ -8263,13 +8411,13 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>847</v>
+        <v>886</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>848</v>
+        <v>887</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>2</v>
@@ -8277,13 +8425,13 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>851</v>
+        <v>890</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>852</v>
+        <v>891</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>2</v>
@@ -8291,13 +8439,13 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>854</v>
+        <v>893</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>2</v>
@@ -8305,13 +8453,13 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>855</v>
+        <v>894</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>857</v>
+        <v>896</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>2</v>
@@ -8319,13 +8467,13 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>858</v>
+        <v>897</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>860</v>
+        <v>899</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>2</v>
@@ -8333,13 +8481,13 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>862</v>
+        <v>901</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>2</v>
@@ -8347,13 +8495,13 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>863</v>
+        <v>902</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>863</v>
+        <v>902</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>2</v>
@@ -8361,13 +8509,13 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>865</v>
+        <v>904</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>2</v>
@@ -8375,13 +8523,13 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>867</v>
+        <v>908</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>2</v>
@@ -8389,13 +8537,13 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>869</v>
+        <v>910</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>2</v>
@@ -8403,13 +8551,13 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>871</v>
+        <v>914</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>872</v>
+        <v>915</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>2</v>
@@ -8417,13 +8565,13 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>873</v>
+        <v>916</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>873</v>
+        <v>916</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>874</v>
+        <v>917</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>2</v>
@@ -8431,13 +8579,13 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>875</v>
+        <v>918</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>875</v>
+        <v>919</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>876</v>
+        <v>920</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>2</v>
@@ -8445,13 +8593,13 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>878</v>
+        <v>922</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>2</v>
@@ -8459,13 +8607,13 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>879</v>
+        <v>923</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>879</v>
+        <v>924</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>880</v>
+        <v>925</v>
       </c>
       <c r="D389" s="0" t="s">
         <v>2</v>
@@ -8473,13 +8621,13 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>881</v>
+        <v>926</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>882</v>
+        <v>927</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>883</v>
+        <v>928</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>2</v>
@@ -8487,13 +8635,13 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>884</v>
+        <v>929</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>884</v>
+        <v>929</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>885</v>
+        <v>930</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>2</v>
@@ -8501,13 +8649,13 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>886</v>
+        <v>931</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>886</v>
+        <v>931</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>887</v>
+        <v>932</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>2</v>
@@ -8515,13 +8663,13 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>888</v>
+        <v>933</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>889</v>
+        <v>934</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>890</v>
+        <v>935</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>2</v>
@@ -8529,13 +8677,13 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>891</v>
+        <v>936</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>892</v>
+        <v>937</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>893</v>
+        <v>938</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>2</v>
@@ -8543,13 +8691,13 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>894</v>
+        <v>939</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>895</v>
+        <v>940</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>896</v>
+        <v>941</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>2</v>
@@ -8557,13 +8705,13 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>897</v>
+        <v>942</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>897</v>
+        <v>942</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>898</v>
+        <v>943</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>2</v>
@@ -8571,13 +8719,13 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>899</v>
+        <v>944</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>899</v>
+        <v>944</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>900</v>
+        <v>945</v>
       </c>
       <c r="D397" s="0" t="s">
         <v>2</v>
@@ -8585,13 +8733,13 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>901</v>
+        <v>946</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>901</v>
+        <v>946</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>902</v>
+        <v>947</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>2</v>
@@ -8599,13 +8747,13 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>903</v>
+        <v>948</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>903</v>
+        <v>948</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>904</v>
+        <v>949</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>2</v>
@@ -8613,13 +8761,13 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>905</v>
+        <v>950</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>905</v>
+        <v>950</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>906</v>
+        <v>951</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>2</v>
@@ -8627,13 +8775,13 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>907</v>
+        <v>952</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>907</v>
+        <v>952</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>908</v>
+        <v>953</v>
       </c>
       <c r="D401" s="0" t="s">
         <v>2</v>
@@ -8641,13 +8789,13 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>910</v>
+        <v>955</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>2</v>
@@ -8655,13 +8803,13 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>911</v>
+        <v>956</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>911</v>
+        <v>956</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>912</v>
+        <v>957</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>2</v>
@@ -8669,13 +8817,13 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>913</v>
+        <v>958</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>913</v>
+        <v>958</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>914</v>
+        <v>959</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>2</v>
@@ -8683,13 +8831,13 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>915</v>
+        <v>960</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>915</v>
+        <v>960</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>916</v>
+        <v>961</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>2</v>
@@ -8697,13 +8845,13 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>917</v>
+        <v>962</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>918</v>
+        <v>963</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>919</v>
+        <v>964</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>2</v>
@@ -8711,13 +8859,13 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>920</v>
+        <v>965</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>920</v>
+        <v>965</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>2</v>
@@ -8725,13 +8873,13 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>922</v>
+        <v>967</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>923</v>
+        <v>968</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>924</v>
+        <v>969</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>2</v>
@@ -8739,13 +8887,13 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>925</v>
+        <v>970</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>926</v>
+        <v>971</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>927</v>
+        <v>972</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>2</v>
@@ -8753,13 +8901,13 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>928</v>
+        <v>973</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>928</v>
+        <v>973</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>929</v>
+        <v>974</v>
       </c>
       <c r="D410" s="0" t="s">
         <v>2</v>
@@ -8767,13 +8915,13 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>930</v>
+        <v>975</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>930</v>
+        <v>975</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>931</v>
+        <v>976</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>2</v>
@@ -8781,13 +8929,13 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>932</v>
+        <v>977</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>932</v>
+        <v>977</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>933</v>
+        <v>978</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>2</v>
@@ -8795,13 +8943,13 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>934</v>
+        <v>979</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>934</v>
+        <v>979</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>935</v>
+        <v>980</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>2</v>
@@ -8809,13 +8957,13 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>936</v>
+        <v>981</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>936</v>
+        <v>981</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>937</v>
+        <v>982</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>2</v>
@@ -8823,13 +8971,13 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>938</v>
+        <v>983</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>938</v>
+        <v>983</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>939</v>
+        <v>984</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>2</v>
@@ -8837,13 +8985,13 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>940</v>
+        <v>985</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>940</v>
+        <v>985</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>941</v>
+        <v>986</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>2</v>
@@ -8851,13 +8999,13 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>942</v>
+        <v>987</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>942</v>
+        <v>987</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>943</v>
+        <v>988</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>2</v>
@@ -8865,13 +9013,13 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>944</v>
+        <v>989</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>944</v>
+        <v>989</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>945</v>
+        <v>990</v>
       </c>
       <c r="D418" s="0" t="s">
         <v>2</v>
@@ -8879,13 +9027,13 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>946</v>
+        <v>991</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>946</v>
+        <v>992</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>947</v>
+        <v>993</v>
       </c>
       <c r="D419" s="0" t="s">
         <v>2</v>
@@ -8893,13 +9041,13 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>948</v>
+        <v>994</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>948</v>
+        <v>994</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>949</v>
+        <v>995</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>2</v>
@@ -8907,13 +9055,13 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>950</v>
+        <v>996</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>950</v>
+        <v>996</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>951</v>
+        <v>997</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>2</v>
@@ -8921,13 +9069,13 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>952</v>
+        <v>998</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>952</v>
+        <v>998</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>953</v>
+        <v>999</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>2</v>
@@ -8935,13 +9083,13 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>954</v>
+        <v>1000</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>955</v>
+        <v>1001</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>956</v>
+        <v>1002</v>
       </c>
       <c r="D423" s="0" t="s">
         <v>2</v>
@@ -8949,13 +9097,13 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>957</v>
+        <v>1003</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>957</v>
+        <v>1004</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>958</v>
+        <v>1005</v>
       </c>
       <c r="D424" s="0" t="s">
         <v>2</v>
@@ -8963,13 +9111,13 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>959</v>
+        <v>1006</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>959</v>
+        <v>1006</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>960</v>
+        <v>1007</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>2</v>
@@ -8977,13 +9125,13 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>961</v>
+        <v>1008</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>961</v>
+        <v>1009</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>962</v>
+        <v>1010</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>2</v>
